--- a/biology/Neurosciences/Septum_pellucidum/Septum_pellucidum.xlsx
+++ b/biology/Neurosciences/Septum_pellucidum/Septum_pellucidum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le septum pellucidum, est une membrane verticale, fine, triangulaire séparant les cornes antérieures des 2 ventricules latéraux du cerveau, passant du corps calleux jusqu'au fornix.
 </t>
@@ -511,10 +523,12 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le septum pellucidum est situé sur la ligne médiane du cerveau, entre les deux hémisphères cérébraux. Il est attaché en haut au corps calleux, l'ensemble des fibres nerveuses qui connectent les 2 hémisphères. En arrière il est en rapport avec la partie antérieure du fornix, et de part et d'autre on trouve la face médiane des deux ventricules latéraux.
-Le septum pellucidum est formé de 2 couches ou laminae, constituées, à la fois, de la substance blanche et de la substance grise[1]. Durant le développement fœtal, il existe un espace entre les deux laminae appelé « Cavum septum pallidum », qui va disparaître dans 90 % des cas au cours de l'enfance[2],[3]. Ce cavum (à ne pas confondre avec le cavum) est appelé parfois le 5e ventricule, cependant ce terme a perdu de son importance du fait qu'il n'existe pas de communication avec le reste du système ventriculaire[4],[5].
+Le septum pellucidum est formé de 2 couches ou laminae, constituées, à la fois, de la substance blanche et de la substance grise. Durant le développement fœtal, il existe un espace entre les deux laminae appelé « Cavum septum pallidum », qui va disparaître dans 90 % des cas au cours de l'enfance,. Ce cavum (à ne pas confondre avec le cavum) est appelé parfois le 5e ventricule, cependant ce terme a perdu de son importance du fait qu'il n'existe pas de communication avec le reste du système ventriculaire,.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Applications cliniques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'absence du septum pellucidum est rencontré dans la dysplasie septo-optique, un syndrome malformatif congénital caractérisé par un défaut de développement de la ligne médiane du cerveau, comprenant une hypoplasie des nerfs optiques et de l'hypophyse.
-De ce fait, le tableau clinique est très variable, parmi les symptômes on trouve : troubles visuels, hypotonie musculaire, troubles hormonaux, convulsions, déficit intellectuel et ictère néonatal[6].</t>
+De ce fait, le tableau clinique est très variable, parmi les symptômes on trouve : troubles visuels, hypotonie musculaire, troubles hormonaux, convulsions, déficit intellectuel et ictère néonatal.</t>
         </is>
       </c>
     </row>
